--- a/biology/Botanique/Neige_de_juin/Neige_de_juin.xlsx
+++ b/biology/Botanique/Neige_de_juin/Neige_de_juin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Serissa foetida
 La neige de juin (Serissa foetida) est une Rubiacée de Chine du sud et de l'Asie du sud-est.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste à feuillage persistant ou semi-persistant qui mesure de 45 à 60 cm de haut (il dépasse rarement les 80 centimètres de hauteur à l’état naturel). Ses petites feuilles ovales, épaisses et vert foncé dégagent une odeur déplaisante si on les écrase (d'où le nom de l'espèce, « foetida », fétide). Les branches s'étalent dans toutes les directions, formant un large dôme touffu. Son tronc, rugueux et gris, tend à devenir plus clair avec l’âge. La floraison a lieu à longueur d'année, mais surtout du début du printemps jusqu'à l'automne. Les boutons floraux, d'abord roses, s'épanouissent en une profusion de fleurs blanches en entonnoir mesurant 1 cm de large, dont la corolle se divise en 4 à 6 lobes. Ses fleurs apparaissent au bout des nouveaux rameaux et tombent généralement au bout de 24h.
 </t>
@@ -544,7 +558,9 @@
           <t>Habitat et aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Serissa foetida est originaire des prairies humides et des boisés ouverts des zones subtropicales d'Asie du Sud-Est. On le retrouve surtout en Chine, au Japon et en Indochine.
 </t>
@@ -575,7 +591,9 @@
           <t>Culture et utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On cultive cet arbuste pour son port compact, sa longue période de floraison et son tronc à l'écorce grise et rugueuse, qui devient plus pâle avec l'âge.
 Le Serissa est communément vendu comme bonsaï. Il n'est pas difficile à tailler, mais il est plutôt exigeant en ce qui concerne les conditions environnementales. Il a tendance à perdre ses feuilles si le sol est trop humide ou trop sec, ou si la température est trop basse ou trop élevée. Il n'aime pas non plus être déplacé. Les feuilles repoussent généralement lorsque les conditions s'améliorent. Le Serissa étant d’origine subtropicale, il a besoin, en intérieur comme en extérieur, de beaucoup de lumière et d’humidité.
@@ -611,7 +629,9 @@
           <t>Taille et ligaturage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille s'effectue de préférence au printemps (ou en automne dans les régions ou l'hiver est doux) lorsque les nouvelles pousses ont plus de 2 nœuds. La taille du tronc s'épaissit lentement. Les branches et rameaux sont plus rapides.
 Pour ne pas épuiser l'arbre, on peut retirer les bourgeons qui apparaissent à la base du tronc (caractéristique du serissa).
@@ -644,7 +664,9 @@
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs cultivars à fleurs doubles ou à feuilles panachées sont disponibles. 'Pink Snow Rose' a des fleurs rose pâle et des feuilles bordées de blanc crème. Parmi les autres cultivars, on retrouve 'Variegata', 'Variegated Pink', 'Pink Mystic', 'Snowflake', 'Snowleaves', 'Mt. Fuji', 'Kyoto' et 'Sapporo'.
 </t>
@@ -675,7 +697,9 @@
           <t>Problèmes phytosanitaires</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La chute ou le jaunissement des feuilles est bien souvent une réaction à une situation de stress (manque de lumière, changements d’emplacement, courants d’air, manque d'humidité).
 Sa sève malodorante le protège de certains insectes, mais l’araignée rouge et les cochenilles sont à surveiller.
